--- a/Container/Data/Tierfähigkeiten.xlsx
+++ b/Container/Data/Tierfähigkeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAC2DD-15C9-4BF0-9CD4-5A46F2DD7750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D74AB4-7197-42DA-A620-5FA029845A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="2940" windowWidth="14400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Fähigkeit</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Angriff</t>
   </si>
   <si>
-    <t>Preis</t>
-  </si>
-  <si>
     <t>Tiere</t>
   </si>
   <si>
-    <t>Pferd,Huhn,Wolf</t>
-  </si>
-  <si>
     <t>Check</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Taschendiebstahl</t>
   </si>
   <si>
-    <t>Alamieren, wache</t>
-  </si>
-  <si>
     <t>Ablenkung</t>
   </si>
   <si>
@@ -83,18 +74,12 @@
     <t>Interrupt (gesicht angreifen?)</t>
   </si>
   <si>
-    <t>fährtenlesen</t>
-  </si>
-  <si>
     <t>Schaden, Statuseffekte</t>
   </si>
   <si>
     <t>taschendiebstahl</t>
   </si>
   <si>
-    <t>Anscheißen, Lärm, usw</t>
-  </si>
-  <si>
     <t>perception</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t>unarmed</t>
   </si>
   <si>
-    <t>Bewachen</t>
-  </si>
-  <si>
     <t>Blocken / schützen</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>Gift abmelken</t>
   </si>
   <si>
-    <t>schlangen und co</t>
-  </si>
-  <si>
     <t>????</t>
   </si>
   <si>
@@ -152,24 +131,119 @@
     <t>persuation</t>
   </si>
   <si>
-    <t>niedlicher welpe</t>
-  </si>
-  <si>
-    <t>abhören</t>
-  </si>
-  <si>
     <t>papagei</t>
   </si>
   <si>
-    <t>percption</t>
+    <t>Pferd,Huhn,Wolf, Hund, Katze, Schwein, Kuh</t>
+  </si>
+  <si>
+    <t>Apportieren</t>
+  </si>
+  <si>
+    <t>Blockieren</t>
+  </si>
+  <si>
+    <t>Gegenstände werfen</t>
+  </si>
+  <si>
+    <t>Flugtiere können Gegenstände, wie Steine, etc., aus der Luft auf Gegner fallen lassen</t>
+  </si>
+  <si>
+    <t>throwing</t>
+  </si>
+  <si>
+    <t>blocken / unarmed?</t>
+  </si>
+  <si>
+    <t>Gift erkennen</t>
+  </si>
+  <si>
+    <t>Feine Nasen können Gifte erschnuppern</t>
+  </si>
+  <si>
+    <t>Einschüchtern</t>
+  </si>
+  <si>
+    <t>intimidation</t>
+  </si>
+  <si>
+    <t>Graben / Buddeln / Fallen stellen</t>
+  </si>
+  <si>
+    <t>Löcher buddeln, Spinne Netze spannen</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Bonusfunktionen</t>
+  </si>
+  <si>
+    <t>Leuchte</t>
+  </si>
+  <si>
+    <t>Herbeibringen des vom Befehlsgeber genannten Gegenstands; eine Person aus dem Gefecht ziehen, wenn bewusstlos</t>
+  </si>
+  <si>
+    <t>Versteck dich!</t>
+  </si>
+  <si>
+    <t>schleichen</t>
+  </si>
+  <si>
+    <t>Verfolgung aufnehmen</t>
+  </si>
+  <si>
+    <t>Schwierigkeitsgrad</t>
+  </si>
+  <si>
+    <t>Taming für Ausführung</t>
+  </si>
+  <si>
+    <t>Preis (Fähigkeitspunkte)</t>
+  </si>
+  <si>
+    <t>Fährtenlesen</t>
+  </si>
+  <si>
+    <t>Alamieren, (Be)Wache</t>
+  </si>
+  <si>
+    <t>schlangen und co - wir melken Gift ab und werden dabei nicht angegriffen</t>
+  </si>
+  <si>
+    <t>Abhören</t>
+  </si>
+  <si>
+    <t>Aufmerksamkeit auf sich ziehen, Anscheißen, Lärm, usw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besänftigung, Mitleid erregen;  niedlicher welpe / Puppy eyes, </t>
+  </si>
+  <si>
+    <t>Wege oder Durchgänge mit dem eigenen Leib einfach blockieren, sodass das Tier erstmal umgangen, oder beiseite geschoben werden muss</t>
+  </si>
+  <si>
+    <t>Steht für den zu erreichten Value; 4 Basiswert + Schwierigkeitsgrad</t>
+  </si>
+  <si>
+    <t>Erfolg: Gift-Stufe nach DM / Misserfolg: Vergiftung nach DM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,11 +271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -482,211 +558,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>4+F3</f>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C26" si="0">4+F4</f>
+        <v>7.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
+      <c r="E30" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
